--- a/실무_엑셀_예제_파일/Chapter02/02-012.xlsx
+++ b/실무_엑셀_예제_파일/Chapter02/02-012.xlsx
@@ -1,35 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oppadu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473DFB8B-EA8B-463E-9EA6-CBFA859E6B8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1F1BCA-4A62-42AE-897A-D7025DCB8DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="4224" windowWidth="8580" windowHeight="8484" xr2:uid="{48963712-DF74-4597-A8E8-20322B165E9A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{48963712-DF74-4597-A8E8-20322B165E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="요일별출근표" sheetId="1" r:id="rId1"/>
     <sheet name="마케팅키워드" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -106,25 +96,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김세민
-정다온</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김진선</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정희엘
-박단비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정진하
-김병민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이제우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,11 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>박정화
-이서우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,48 +120,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최효윤
-이유림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김세민</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정다온
-김준용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김진선
-이서우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>박단비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정희엘
-최리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정진하
-김교은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김병민</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이제우
-최효윤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이유림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,6 +142,36 @@
   <si>
     <t>박희선</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김세민,정다온</t>
+  </si>
+  <si>
+    <t>정희엘,박단비</t>
+  </si>
+  <si>
+    <t>정진하,김병민</t>
+  </si>
+  <si>
+    <t>박정화,이서우</t>
+  </si>
+  <si>
+    <t>최효윤,이유림</t>
+  </si>
+  <si>
+    <t>이제우,최효윤</t>
+  </si>
+  <si>
+    <t>김진선,이서우</t>
+  </si>
+  <si>
+    <t>정진하,김교은</t>
+  </si>
+  <si>
+    <t>정다온,김준용</t>
+  </si>
+  <si>
+    <t>정희엘,최리</t>
   </si>
 </sst>
 </file>
@@ -510,77 +480,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,188 +866,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A70C69-8A30-417A-9254-569D4F9A6E49}">
-  <dimension ref="B1:G27"/>
+  <dimension ref="B1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N9" sqref="M9:N9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" customWidth="1"/>
-    <col min="3" max="7" width="15.296875" customWidth="1"/>
+    <col min="2" max="2" width="13.9140625" customWidth="1"/>
+    <col min="3" max="7" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:13" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:7" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="23"/>
-      <c r="C4" s="20" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="2:13" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="22"/>
+      <c r="C4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="39.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:13" ht="39.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="I5" s="2" t="str">
+        <f>SUBSTITUTE(C5, ",", CHAR(10))</f>
+        <v>김세민
+정다온</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f t="shared" ref="J5:M5" si="0">SUBSTITUTE(D5, ",", CHAR(10))</f>
+        <v>김진선</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>정희엘
+박단비</v>
+      </c>
+      <c r="L5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>정진하
+김병민</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>이제우</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" ref="I6:I9" si="1">SUBSTITUTE(C6, ",", CHAR(10))</f>
+        <v>김준용</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f t="shared" ref="J6:J9" si="2">SUBSTITUTE(D6, ",", CHAR(10))</f>
+        <v>박정화
+이서우</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f t="shared" ref="K6:K9" si="3">SUBSTITUTE(E6, ",", CHAR(10))</f>
+        <v>최리</v>
+      </c>
+      <c r="L6" s="2" t="str">
+        <f t="shared" ref="L6:L9" si="4">SUBSTITUTE(F6, ",", CHAR(10))</f>
+        <v>김교은</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f t="shared" ref="M6:M9" si="5">SUBSTITUTE(G6, ",", CHAR(10))</f>
+        <v>최효윤
+이유림</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>이제우
+최효윤</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>김세민</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>김진선
+이서우</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>박단비</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>정진하
+김교은</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>이유림</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>정다온
+김준용</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>박정화</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>정희엘
+최리</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>김병민</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="D9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="E15" s="24"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="E16" s="24"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E19" s="24"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E20" s="24"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E21" s="24"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E22" s="25"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E25" s="25"/>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E27" s="26"/>
+      <c r="E9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>김수호</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>박희선</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>김수호</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>박희선</v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>김수호</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E27" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1093,42 +1176,42 @@
   <dimension ref="B1:B8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.3984375" customWidth="1"/>
-    <col min="2" max="2" width="104.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.4140625" customWidth="1"/>
+    <col min="2" max="2" width="104.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:2" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:2" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
